--- a/SupplyChainModel/Time-Series Models.xlsx
+++ b/SupplyChainModel/Time-Series Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kampcom\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8585B4C-046D-4211-95BE-C8D4EA9CDCF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFEE9B7-F91A-4477-886C-03F71FBD45D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="754" firstSheet="2" activeTab="7" xr2:uid="{AC641695-ACBB-444B-A5A9-3A7F2BFDF7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="754" firstSheet="1" activeTab="4" xr2:uid="{AC641695-ACBB-444B-A5A9-3A7F2BFDF7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Moving Average method" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Initial Level and Trend" sheetId="6" r:id="rId5"/>
     <sheet name="Initial Seasonal Index" sheetId="7" r:id="rId6"/>
     <sheet name="Decomposition Method" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="Linear Regression" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">SimpleExponentialSmoothing!$E$4</definedName>
@@ -1239,7 +1239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1643,11 +1643,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1716,7 +1725,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1812,6 +1820,8 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -5290,7 +5300,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$23:$F$34</c:f>
+              <c:f>'Linear Regression'!$F$23:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5335,7 +5345,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$23:$G$34</c:f>
+              <c:f>'Linear Regression'!$G$23:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -11524,10 +11534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27908B3-30E1-4218-8C18-B6D209C09395}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11536,42 +11546,50 @@
     <col min="4" max="4" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="Q1" s="131"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="Q2" s="131"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="Q3" s="131"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="Q4" s="131"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="66"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="14"/>
+      <c r="Q5" s="131"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="Q6" s="131"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="131"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -11582,8 +11600,9 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="Q8" s="131"/>
+    </row>
+    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
@@ -11598,8 +11617,9 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="Q9" s="131"/>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>15</v>
       </c>
@@ -11610,8 +11630,9 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="Q10" s="131"/>
+    </row>
+    <row r="11" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="4"/>
       <c r="D11" s="25"/>
@@ -11620,8 +11641,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="131"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -11630,9 +11652,15 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="131"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="131"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="131"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
@@ -11648,8 +11676,9 @@
       <c r="I15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q15" s="131"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E16" s="9">
         <v>1</v>
       </c>
@@ -11664,8 +11693,9 @@
         <v>120</v>
       </c>
       <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q16" s="131"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E17" s="9">
         <v>2</v>
       </c>
@@ -11683,8 +11713,9 @@
         <f>H16</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q17" s="131"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E18" s="9">
         <v>3</v>
       </c>
@@ -11702,8 +11733,9 @@
         <f t="shared" ref="I18:I25" si="0">H17</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q18" s="131"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E19" s="9">
         <v>4</v>
       </c>
@@ -11721,8 +11753,9 @@
         <f t="shared" si="0"/>
         <v>103.33333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q19" s="131"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E20" s="9">
         <v>5</v>
       </c>
@@ -11740,8 +11773,9 @@
         <f t="shared" si="0"/>
         <v>88.333333333333329</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q20" s="131"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E21" s="9">
         <v>6</v>
       </c>
@@ -11759,8 +11793,9 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q21" s="131"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E22" s="9">
         <v>7</v>
       </c>
@@ -11778,8 +11813,9 @@
         <f t="shared" si="0"/>
         <v>78.333333333333329</v>
       </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q22" s="131"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E23" s="9">
         <v>8</v>
       </c>
@@ -11797,8 +11833,9 @@
         <f t="shared" si="0"/>
         <v>78.333333333333329</v>
       </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q23" s="131"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E24" s="9">
         <v>9</v>
       </c>
@@ -11816,8 +11853,9 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q24" s="131"/>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E25" s="9">
         <v>10</v>
       </c>
@@ -11835,8 +11873,9 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q25" s="131"/>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E26" s="9">
         <v>11</v>
       </c>
@@ -11849,8 +11888,9 @@
         <f>$H$25</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q26" s="131"/>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E27" s="9">
         <v>12</v>
       </c>
@@ -11863,8 +11903,9 @@
         <f t="shared" ref="I27:I29" si="2">$H$25</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q27" s="131"/>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E28" s="9">
         <v>13</v>
       </c>
@@ -11877,8 +11918,9 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="131"/>
+    </row>
+    <row r="29" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E29" s="11">
         <v>14</v>
       </c>
@@ -11891,38 +11933,82 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="Q29" s="131"/>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="Q30" s="131"/>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="Q31" s="131"/>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="131"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="131"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q34" s="131"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="107" t="s">
+      <c r="Q35" s="131"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q36" s="131"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C37" s="106" t="s">
         <v>100</v>
       </c>
       <c r="D37" s="59">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C38" s="107" t="s">
+      <c r="Q37" s="131"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C38" s="106" t="s">
         <v>102</v>
       </c>
       <c r="D38" s="59">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="107" t="s">
+      <c r="Q38" s="131"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C39" s="106" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="59">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="131"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q40" s="131"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="131"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>20</v>
       </c>
@@ -11938,8 +12024,9 @@
       <c r="I42" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="Q42" s="131"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E43" s="9">
         <v>1</v>
       </c>
@@ -11954,8 +12041,9 @@
         <v>120</v>
       </c>
       <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="Q43" s="131"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E44" s="9">
         <v>2</v>
       </c>
@@ -11973,8 +12061,9 @@
         <f>H43</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="Q44" s="131"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E45" s="9">
         <v>3</v>
       </c>
@@ -11992,8 +12081,9 @@
         <f t="shared" ref="I45:I52" si="3">H44</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="Q45" s="131"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E46" s="9">
         <v>4</v>
       </c>
@@ -12011,8 +12101,9 @@
         <f t="shared" si="3"/>
         <v>100.10000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="Q46" s="131"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E47" s="9">
         <v>5</v>
       </c>
@@ -12030,8 +12121,9 @@
         <f t="shared" si="3"/>
         <v>85.8</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="Q47" s="131"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E48" s="9">
         <v>6</v>
       </c>
@@ -12049,8 +12141,9 @@
         <f t="shared" si="3"/>
         <v>96.75</v>
       </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q48" s="131"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E49" s="9">
         <v>7</v>
       </c>
@@ -12068,8 +12161,9 @@
         <f t="shared" si="3"/>
         <v>74.050000000000011</v>
       </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q49" s="131"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E50" s="9">
         <v>8</v>
       </c>
@@ -12087,8 +12181,9 @@
         <f t="shared" si="3"/>
         <v>72.7</v>
       </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q50" s="131"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E51" s="9">
         <v>9</v>
       </c>
@@ -12106,8 +12201,9 @@
         <f t="shared" si="3"/>
         <v>98.25</v>
       </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q51" s="131"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E52" s="9">
         <v>10</v>
       </c>
@@ -12125,8 +12221,9 @@
         <f t="shared" si="3"/>
         <v>110.65</v>
       </c>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q52" s="131"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E53" s="9">
         <v>11</v>
       </c>
@@ -12142,8 +12239,9 @@
         <f>$H$25</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q53" s="131"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E54" s="9">
         <v>12</v>
       </c>
@@ -12159,8 +12257,9 @@
         <f t="shared" ref="I54:I56" si="6">$H$25</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="Q54" s="131"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E55" s="9">
         <v>13</v>
       </c>
@@ -12176,8 +12275,9 @@
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="131"/>
+    </row>
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E56" s="11">
         <v>14</v>
       </c>
@@ -12185,7 +12285,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="12"/>
-      <c r="H56" s="108">
+      <c r="H56" s="107">
         <f t="shared" si="5"/>
         <v>103.4</v>
       </c>
@@ -12193,6 +12293,32 @@
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
+      <c r="Q56" s="131"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="131"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="131"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="131"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="O59" s="131"/>
+      <c r="P59" s="131"/>
+      <c r="Q59" s="131"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -13255,51 +13381,51 @@
       <c r="N50" s="58"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
       <c r="N51" s="58"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
       <c r="N52" s="58"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
       <c r="N53" s="58"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -13321,23 +13447,23 @@
       <c r="N59" s="58"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="68"/>
+      <c r="B60" s="67"/>
       <c r="N60" s="58"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="67" t="s">
         <v>65</v>
       </c>
       <c r="N61" s="58"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="67" t="s">
         <v>66</v>
       </c>
       <c r="N62" s="58"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="67" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="s">
@@ -13346,21 +13472,21 @@
       <c r="N63" s="58"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="67" t="s">
         <v>68</v>
       </c>
       <c r="N64" s="58"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="68"/>
+      <c r="B65" s="67"/>
       <c r="N65" s="58"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="68"/>
+      <c r="B66" s="67"/>
       <c r="N66" s="58"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B67" s="68"/>
+      <c r="B67" s="67"/>
       <c r="N67" s="58"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
@@ -14673,7 +14799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AECB63D-2F15-4160-9F82-EC9B28450BF6}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -15353,7 +15479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541B345C-84F5-4A9D-9CB6-8667D1D558E3}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -15364,16 +15490,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="69"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -15710,7 +15836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA17ADAE-6581-44B2-91BC-E5A76FA27259}">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
@@ -15733,91 +15859,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="70"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:21" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="70"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="99"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="98"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="69"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="68"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
       <c r="T10" s="64"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="N11" s="82"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
       <c r="T11" s="64"/>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N12" s="82"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
       <c r="T12" s="64"/>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15836,9 +15962,9 @@
       <c r="I13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="82"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
       <c r="Q13" s="5" t="s">
         <v>99</v>
       </c>
@@ -15866,15 +15992,15 @@
       <c r="I14" s="8">
         <v>34000</v>
       </c>
-      <c r="N14" s="82"/>
-      <c r="O14" s="100" t="s">
+      <c r="N14" s="81"/>
+      <c r="O14" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="99"/>
+      <c r="P14" s="98"/>
       <c r="Q14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="101">
+      <c r="R14" s="100">
         <f>F20</f>
         <v>0.45283018867924529</v>
       </c>
@@ -15899,13 +16025,13 @@
       <c r="I15" s="10">
         <v>38000</v>
       </c>
-      <c r="N15" s="82"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
       <c r="Q15" s="5">
         <v>2</v>
       </c>
-      <c r="R15" s="102">
+      <c r="R15" s="101">
         <f>G20</f>
         <v>0.66415094339622638</v>
       </c>
@@ -15931,13 +16057,13 @@
       <c r="K16" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="82"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
       <c r="Q16" s="6">
         <v>3</v>
       </c>
-      <c r="R16" s="102">
+      <c r="R16" s="101">
         <f>H20</f>
         <v>1.1773584905660377</v>
       </c>
@@ -15969,13 +16095,13 @@
         <f>AVERAGE(F17:I17)</f>
         <v>22083.333333333332</v>
       </c>
-      <c r="N17" s="82"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
       <c r="Q17" s="5">
         <v>4</v>
       </c>
-      <c r="R17" s="103">
+      <c r="R17" s="102">
         <f>I20</f>
         <v>1.7056603773584906</v>
       </c>
@@ -15989,237 +16115,237 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="14"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
       <c r="T18" s="64"/>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>90</v>
       </c>
-      <c r="N19" s="82"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
       <c r="T19" s="64"/>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="88">
         <f>F17/$K$17</f>
         <v>0.45283018867924529</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="88">
         <f>G17/$K$17</f>
         <v>0.66415094339622638</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="88">
         <f>H17/$K$17</f>
         <v>1.1773584905660377</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="89">
         <f>I17/$K$17</f>
         <v>1.7056603773584906</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="91">
+      <c r="K20" s="90">
         <f xml:space="preserve"> SUM(F20:I20)</f>
         <v>4</v>
       </c>
-      <c r="N20" s="82"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
       <c r="T20" s="64"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
       <c r="T21" s="64"/>
     </row>
     <row r="22" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N22" s="82"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
       <c r="T22" s="64"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
       <c r="T23" s="64"/>
     </row>
     <row r="24" spans="1:20" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
       <c r="N24" s="64"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
       <c r="T24" s="64"/>
     </row>
     <row r="25" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
       <c r="N25" s="64"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
       <c r="T25" s="64"/>
     </row>
     <row r="26" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="112"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="64"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
       <c r="T26" s="64"/>
     </row>
     <row r="27" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="112"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
       <c r="N27" s="64"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
       <c r="T27" s="64"/>
     </row>
     <row r="28" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="135" t="s">
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="134">
+      <c r="F28" s="133">
         <v>4</v>
       </c>
-      <c r="G28" s="99" t="str">
+      <c r="G28" s="98" t="str">
         <f xml:space="preserve"> IF(MOD(F28,2)=0,"(Even)","(Odd)")</f>
         <v>(Even)</v>
       </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
       <c r="N28" s="64"/>
       <c r="T28" s="64"/>
     </row>
     <row r="29" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="112"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
       <c r="N29" s="64"/>
       <c r="T29" s="64"/>
     </row>
     <row r="30" spans="1:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="112"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
       <c r="N30" s="64"/>
-      <c r="O30" s="100" t="s">
+      <c r="O30" s="99" t="s">
         <v>97</v>
       </c>
       <c r="Q30" s="5" t="s">
@@ -16232,43 +16358,43 @@
     </row>
     <row r="31" spans="1:20" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
       <c r="N31" s="64"/>
       <c r="Q31" s="6">
         <v>1</v>
       </c>
-      <c r="R31" s="104">
+      <c r="R31" s="103">
         <f>E64</f>
         <v>0.50553018661070992</v>
       </c>
       <c r="T31" s="64"/>
     </row>
     <row r="32" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
       <c r="N32" s="64"/>
       <c r="Q32" s="5">
         <v>2</v>
       </c>
-      <c r="R32" s="105">
+      <c r="R32" s="104">
         <f>F64</f>
         <v>0.69010702082808906</v>
       </c>
@@ -16279,7 +16405,7 @@
       <c r="Q33" s="6">
         <v>3</v>
       </c>
-      <c r="R33" s="105">
+      <c r="R33" s="104">
         <f>G64</f>
         <v>1.10440612004126</v>
       </c>
@@ -16295,7 +16421,7 @@
       <c r="F34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="86" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="18" t="s">
@@ -16311,7 +16437,7 @@
       <c r="Q34" s="5">
         <v>4</v>
       </c>
-      <c r="R34" s="106">
+      <c r="R34" s="105">
         <f>H64</f>
         <v>1.6999566725199415</v>
       </c>
@@ -16324,7 +16450,7 @@
       <c r="E35" s="18">
         <v>1</v>
       </c>
-      <c r="F35" s="109">
+      <c r="F35" s="108">
         <v>1</v>
       </c>
       <c r="G35" s="6">
@@ -16343,7 +16469,7 @@
       <c r="E36" s="19">
         <v>1</v>
       </c>
-      <c r="F36" s="110">
+      <c r="F36" s="109">
         <v>2</v>
       </c>
       <c r="G36" s="9">
@@ -16364,7 +16490,7 @@
       <c r="E37" s="19">
         <v>1</v>
       </c>
-      <c r="F37" s="111">
+      <c r="F37" s="110">
         <v>3</v>
       </c>
       <c r="G37" s="9">
@@ -16390,7 +16516,7 @@
       <c r="E38" s="19">
         <v>1</v>
       </c>
-      <c r="F38" s="110">
+      <c r="F38" s="109">
         <v>4</v>
       </c>
       <c r="G38" s="9">
@@ -16490,7 +16616,7 @@
       <c r="E42" s="19">
         <v>2</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42" s="80">
         <v>4</v>
       </c>
       <c r="G42" s="9">
@@ -16581,7 +16707,7 @@
       <c r="E46" s="20">
         <v>3</v>
       </c>
-      <c r="F46" s="85">
+      <c r="F46" s="84">
         <v>4</v>
       </c>
       <c r="G46" s="11">
@@ -16662,35 +16788,35 @@
       <c r="T54" s="64"/>
     </row>
     <row r="55" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D55" s="86" t="s">
+      <c r="D55" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="86">
+      <c r="E55" s="85">
         <v>1</v>
       </c>
-      <c r="F55" s="86">
+      <c r="F55" s="85">
         <v>2</v>
       </c>
-      <c r="G55" s="86">
+      <c r="G55" s="85">
         <v>3</v>
       </c>
-      <c r="H55" s="86">
+      <c r="H55" s="85">
         <v>4</v>
       </c>
       <c r="N55" s="64"/>
       <c r="T55" s="64"/>
     </row>
     <row r="56" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D56" s="86">
+      <c r="D56" s="85">
         <v>1</v>
       </c>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92">
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91">
         <f>J37</f>
         <v>1.1645569620253164</v>
       </c>
-      <c r="H56" s="92">
+      <c r="H56" s="91">
         <f>J38</f>
         <v>1.6484848484848484</v>
       </c>
@@ -16698,22 +16824,22 @@
       <c r="T56" s="64"/>
     </row>
     <row r="57" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D57" s="86">
+      <c r="D57" s="85">
         <v>2</v>
       </c>
-      <c r="E57" s="93">
+      <c r="E57" s="92">
         <f>$J39</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="F57" s="93">
+      <c r="F57" s="92">
         <f>J40</f>
         <v>0.82758620689655171</v>
       </c>
-      <c r="G57" s="93">
+      <c r="G57" s="92">
         <f>J41</f>
         <v>1.0222222222222221</v>
       </c>
-      <c r="H57" s="93">
+      <c r="H57" s="92">
         <f>J42</f>
         <v>1.7175141242937852</v>
       </c>
@@ -16721,19 +16847,19 @@
       <c r="T57" s="64"/>
     </row>
     <row r="58" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="86">
+      <c r="D58" s="85">
         <v>3</v>
       </c>
-      <c r="E58" s="94">
+      <c r="E58" s="93">
         <f>J43</f>
         <v>0.53038674033149169</v>
       </c>
-      <c r="F58" s="94">
+      <c r="F58" s="93">
         <f>J44</f>
         <v>0.53886010362694303</v>
       </c>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
       <c r="N58" s="64"/>
       <c r="T58" s="64"/>
       <c r="U58" s="64"/>
@@ -16791,7 +16917,7 @@
         <f xml:space="preserve"> AVERAGE(E56:E58)</f>
         <v>0.50048748781280472</v>
       </c>
-      <c r="F63" s="97">
+      <c r="F63" s="96">
         <f t="shared" ref="F63:H63" si="4" xml:space="preserve"> AVERAGE(F56:F58)</f>
         <v>0.68322315526174737</v>
       </c>
@@ -16804,7 +16930,7 @@
         <v>1.682999486389317</v>
       </c>
       <c r="I63" s="6"/>
-      <c r="J63" s="95">
+      <c r="J63" s="94">
         <f>SUM(E63:H63)</f>
         <v>3.9600997215876381</v>
       </c>
@@ -16814,24 +16940,24 @@
       <c r="D64" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="98">
+      <c r="E64" s="97">
         <f>E63*(4/$J$63)</f>
         <v>0.50553018661070992</v>
       </c>
-      <c r="F64" s="98">
+      <c r="F64" s="97">
         <f>F63*(4/$J$63)</f>
         <v>0.69010702082808906</v>
       </c>
-      <c r="G64" s="98">
+      <c r="G64" s="97">
         <f>G63*(4/$J$63)</f>
         <v>1.10440612004126</v>
       </c>
-      <c r="H64" s="98">
+      <c r="H64" s="97">
         <f>H63*(4/$J$63)</f>
         <v>1.6999566725199415</v>
       </c>
       <c r="I64" s="11"/>
-      <c r="J64" s="96">
+      <c r="J64" s="95">
         <f>SUM(E64:H64)</f>
         <v>4.0000000000000009</v>
       </c>
@@ -16873,57 +16999,57 @@
       <c r="N67" s="64"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="82"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
     </row>
     <row r="70" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
     </row>
     <row r="71" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
     </row>
     <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
     </row>
     <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="98"/>
     </row>
     <row r="75" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="113" t="s">
+      <c r="B75" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="135" t="s">
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="F75" s="134">
+      <c r="F75" s="133">
         <v>7</v>
       </c>
-      <c r="G75" s="99" t="str">
+      <c r="G75" s="98" t="str">
         <f xml:space="preserve"> IF(MOD(F75,2)=0,"(Even)","(Odd)")</f>
         <v>(Odd)</v>
       </c>
@@ -16932,15 +17058,15 @@
       <c r="B76" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B77" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="20"/>
@@ -16956,7 +17082,7 @@
       <c r="F82" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G82" s="87" t="s">
+      <c r="G82" s="86" t="s">
         <v>5</v>
       </c>
       <c r="H82" s="18" t="s">
@@ -16976,7 +17102,7 @@
       <c r="E83" s="18">
         <v>1</v>
       </c>
-      <c r="F83" s="109">
+      <c r="F83" s="108">
         <v>1</v>
       </c>
       <c r="G83" s="6">
@@ -16993,7 +17119,7 @@
       <c r="E84" s="19">
         <v>1</v>
       </c>
-      <c r="F84" s="110">
+      <c r="F84" s="109">
         <v>2</v>
       </c>
       <c r="G84" s="9">
@@ -17008,7 +17134,7 @@
       <c r="E85" s="19">
         <v>1</v>
       </c>
-      <c r="F85" s="111">
+      <c r="F85" s="110">
         <v>3</v>
       </c>
       <c r="G85" s="9">
@@ -17020,19 +17146,19 @@
       </c>
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
-      <c r="L85" s="119" t="s">
+      <c r="L85" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="M85" s="119"/>
-      <c r="N85" s="119"/>
-      <c r="O85" s="119"/>
+      <c r="M85" s="118"/>
+      <c r="N85" s="118"/>
+      <c r="O85" s="118"/>
     </row>
     <row r="86" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="20"/>
       <c r="E86" s="19">
         <v>1</v>
       </c>
-      <c r="F86" s="110">
+      <c r="F86" s="109">
         <v>4</v>
       </c>
       <c r="G86" s="9">
@@ -17055,7 +17181,7 @@
       <c r="E87" s="19">
         <v>1</v>
       </c>
-      <c r="F87" s="110">
+      <c r="F87" s="109">
         <v>5</v>
       </c>
       <c r="G87" s="9">
@@ -17078,7 +17204,7 @@
       <c r="E88" s="19">
         <v>1</v>
       </c>
-      <c r="F88" s="110">
+      <c r="F88" s="109">
         <v>6</v>
       </c>
       <c r="G88" s="9">
@@ -17104,7 +17230,7 @@
       <c r="E89" s="19">
         <v>1</v>
       </c>
-      <c r="F89" s="110">
+      <c r="F89" s="109">
         <v>7</v>
       </c>
       <c r="G89" s="9">
@@ -17127,7 +17253,7 @@
       <c r="E90" s="19">
         <v>2</v>
       </c>
-      <c r="F90" s="81">
+      <c r="F90" s="80">
         <v>1</v>
       </c>
       <c r="G90" s="6">
@@ -17265,7 +17391,7 @@
       <c r="E96" s="20">
         <v>2</v>
       </c>
-      <c r="F96" s="85">
+      <c r="F96" s="84">
         <v>7</v>
       </c>
       <c r="G96" s="20">
@@ -17285,13 +17411,13 @@
       </c>
     </row>
     <row r="97" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E97" s="81">
+      <c r="E97" s="80">
         <v>3</v>
       </c>
-      <c r="F97" s="81">
+      <c r="F97" s="80">
         <v>1</v>
       </c>
-      <c r="G97" s="81">
+      <c r="G97" s="80">
         <v>21000</v>
       </c>
       <c r="H97" s="19">
@@ -17308,13 +17434,13 @@
       </c>
     </row>
     <row r="98" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E98" s="81">
+      <c r="E98" s="80">
         <v>3</v>
       </c>
-      <c r="F98" s="81">
+      <c r="F98" s="80">
         <v>2</v>
       </c>
-      <c r="G98" s="81">
+      <c r="G98" s="80">
         <v>27000</v>
       </c>
       <c r="H98" s="19">
@@ -17331,13 +17457,13 @@
       </c>
     </row>
     <row r="99" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E99" s="81">
+      <c r="E99" s="80">
         <v>3</v>
       </c>
-      <c r="F99" s="81">
+      <c r="F99" s="80">
         <v>3</v>
       </c>
-      <c r="G99" s="81">
+      <c r="G99" s="80">
         <v>39000</v>
       </c>
       <c r="H99" s="19">
@@ -17354,13 +17480,13 @@
       </c>
     </row>
     <row r="100" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E100" s="81">
+      <c r="E100" s="80">
         <v>3</v>
       </c>
-      <c r="F100" s="81">
+      <c r="F100" s="80">
         <v>4</v>
       </c>
-      <c r="G100" s="81">
+      <c r="G100" s="80">
         <v>49000</v>
       </c>
       <c r="H100" s="19"/>
@@ -17368,13 +17494,13 @@
       <c r="J100" s="19"/>
     </row>
     <row r="101" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E101" s="81">
+      <c r="E101" s="80">
         <v>3</v>
       </c>
-      <c r="F101" s="81">
+      <c r="F101" s="80">
         <v>5</v>
       </c>
-      <c r="G101" s="81">
+      <c r="G101" s="80">
         <v>25000</v>
       </c>
       <c r="H101" s="19"/>
@@ -17382,13 +17508,13 @@
       <c r="J101" s="19"/>
     </row>
     <row r="102" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E102" s="81">
+      <c r="E102" s="80">
         <v>3</v>
       </c>
-      <c r="F102" s="81">
+      <c r="F102" s="80">
         <v>6</v>
       </c>
-      <c r="G102" s="81">
+      <c r="G102" s="80">
         <v>31000</v>
       </c>
       <c r="H102" s="19"/>
@@ -17396,13 +17522,13 @@
       <c r="J102" s="19"/>
     </row>
     <row r="103" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="85">
+      <c r="E103" s="84">
         <v>3</v>
       </c>
-      <c r="F103" s="85">
+      <c r="F103" s="84">
         <v>7</v>
       </c>
-      <c r="G103" s="85">
+      <c r="G103" s="84">
         <v>40000</v>
       </c>
       <c r="H103" s="20"/>
@@ -17438,7 +17564,7 @@
       <c r="F107" s="14"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="137"/>
+      <c r="I107" s="136"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="4:11" x14ac:dyDescent="0.2">
@@ -17450,108 +17576,108 @@
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D109" s="86" t="s">
+      <c r="D109" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="E109" s="86">
+      <c r="E109" s="85">
         <v>1</v>
       </c>
-      <c r="F109" s="86">
+      <c r="F109" s="85">
         <v>2</v>
       </c>
-      <c r="G109" s="86">
+      <c r="G109" s="85">
         <v>3</v>
       </c>
-      <c r="H109" s="86">
+      <c r="H109" s="85">
         <v>4</v>
       </c>
-      <c r="I109" s="129">
+      <c r="I109" s="128">
         <v>5</v>
       </c>
-      <c r="J109" s="129">
+      <c r="J109" s="128">
         <v>6</v>
       </c>
-      <c r="K109" s="129">
+      <c r="K109" s="128">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D110" s="86">
+      <c r="D110" s="85">
         <v>1</v>
       </c>
-      <c r="E110" s="92"/>
-      <c r="F110" s="92"/>
-      <c r="G110" s="92"/>
-      <c r="H110" s="92">
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="91"/>
+      <c r="H110" s="91">
         <f>J86</f>
         <v>0.95967741935483852</v>
       </c>
-      <c r="I110" s="92">
+      <c r="I110" s="91">
         <f>J87</f>
         <v>0.27131782945736438</v>
       </c>
-      <c r="J110" s="92">
+      <c r="J110" s="91">
         <f>J88</f>
         <v>1.8283582089552237</v>
       </c>
-      <c r="K110" s="92">
+      <c r="K110" s="91">
         <f>J89</f>
         <v>2.1402877697841727</v>
       </c>
     </row>
     <row r="111" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D111" s="86">
+      <c r="D111" s="85">
         <v>2</v>
       </c>
-      <c r="E111" s="93">
+      <c r="E111" s="92">
         <f>J90</f>
         <v>0.43674176776429813</v>
       </c>
-      <c r="F111" s="93">
+      <c r="F111" s="92">
         <f>J91</f>
         <v>0.5494880546075086</v>
       </c>
-      <c r="G111" s="93">
+      <c r="G111" s="92">
         <f>J92</f>
         <v>0.77777777777777768</v>
       </c>
-      <c r="H111" s="93">
+      <c r="H111" s="92">
         <f>J93</f>
         <v>1.014827018121911</v>
       </c>
-      <c r="I111" s="93">
+      <c r="I111" s="92">
         <f>J94</f>
         <v>0.47882736156351796</v>
       </c>
-      <c r="J111" s="93">
+      <c r="J111" s="92">
         <f>J95</f>
         <v>1.5256410256410255</v>
       </c>
-      <c r="K111" s="93">
+      <c r="K111" s="92">
         <f>J96</f>
         <v>2.0944881889763782</v>
       </c>
     </row>
     <row r="112" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D112" s="86">
+      <c r="D112" s="85">
         <v>3</v>
       </c>
-      <c r="E112" s="94">
+      <c r="E112" s="93">
         <f>J97</f>
         <v>0.45652173913043476</v>
       </c>
-      <c r="F112" s="94">
+      <c r="F112" s="93">
         <f>J98</f>
         <v>0.61865793780687395</v>
       </c>
-      <c r="G112" s="94">
+      <c r="G112" s="93">
         <f>J99</f>
         <v>1.0520231213872833</v>
       </c>
-      <c r="H112" s="94"/>
-      <c r="I112" s="136"/>
-      <c r="J112" s="136"/>
-      <c r="K112" s="136"/>
+      <c r="H112" s="93"/>
+      <c r="I112" s="135"/>
+      <c r="J112" s="135"/>
+      <c r="K112" s="135"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E113" s="4"/>
@@ -17607,7 +17733,7 @@
       <c r="J117" s="3">
         <v>6</v>
       </c>
-      <c r="K117" s="138">
+      <c r="K117" s="137">
         <v>7</v>
       </c>
       <c r="M117" t="s">
@@ -17647,7 +17773,7 @@
         <v>2.1173879793802755</v>
       </c>
       <c r="L118" s="6"/>
-      <c r="M118" s="95">
+      <c r="M118" s="94">
         <f>SUM(E118:K118)</f>
         <v>7.1023176101643042</v>
       </c>
@@ -17656,36 +17782,36 @@
       <c r="D119" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E119" s="98">
+      <c r="E119" s="97">
         <f>E118*(7/$M$118)</f>
         <v>0.44019747436488393</v>
       </c>
-      <c r="F119" s="98">
+      <c r="F119" s="97">
         <f>F118*(7/$M$118)</f>
         <v>0.57565870718019829</v>
       </c>
-      <c r="G119" s="98">
+      <c r="G119" s="97">
         <f t="shared" ref="G119:K119" si="9">G118*(7/$M$118)</f>
         <v>0.90172018467779513</v>
       </c>
-      <c r="H119" s="98">
+      <c r="H119" s="97">
         <f t="shared" si="9"/>
         <v>0.97302963771691287</v>
       </c>
-      <c r="I119" s="98">
+      <c r="I119" s="97">
         <f t="shared" si="9"/>
         <v>0.36966921400637698</v>
       </c>
-      <c r="J119" s="98">
+      <c r="J119" s="97">
         <f t="shared" si="9"/>
         <v>1.652840377665862</v>
       </c>
-      <c r="K119" s="98">
+      <c r="K119" s="97">
         <f t="shared" si="9"/>
         <v>2.0868844043879706</v>
       </c>
       <c r="L119" s="11"/>
-      <c r="M119" s="96">
+      <c r="M119" s="95">
         <f>SUM(E119:K119)</f>
         <v>7</v>
       </c>
@@ -17707,36 +17833,36 @@
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B122" s="140" t="s">
+      <c r="B122" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="C122" s="130"/>
-      <c r="D122" s="130"/>
-      <c r="E122" s="139"/>
-      <c r="F122" s="139"/>
-      <c r="G122" s="139"/>
-      <c r="H122" s="139"/>
-      <c r="I122" s="139"/>
-      <c r="J122" s="139"/>
-      <c r="K122" s="130"/>
-      <c r="L122" s="130"/>
-      <c r="M122" s="130"/>
+      <c r="C122" s="129"/>
+      <c r="D122" s="129"/>
+      <c r="E122" s="138"/>
+      <c r="F122" s="138"/>
+      <c r="G122" s="138"/>
+      <c r="H122" s="138"/>
+      <c r="I122" s="138"/>
+      <c r="J122" s="138"/>
+      <c r="K122" s="129"/>
+      <c r="L122" s="129"/>
+      <c r="M122" s="129"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B123" s="130" t="s">
+      <c r="B123" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="130"/>
-      <c r="D123" s="130"/>
-      <c r="E123" s="139"/>
-      <c r="F123" s="139"/>
-      <c r="G123" s="139"/>
-      <c r="H123" s="139"/>
-      <c r="I123" s="139"/>
-      <c r="J123" s="139"/>
-      <c r="K123" s="130"/>
-      <c r="L123" s="130"/>
-      <c r="M123" s="130"/>
+      <c r="C123" s="129"/>
+      <c r="D123" s="129"/>
+      <c r="E123" s="138"/>
+      <c r="F123" s="138"/>
+      <c r="G123" s="138"/>
+      <c r="H123" s="138"/>
+      <c r="I123" s="138"/>
+      <c r="J123" s="138"/>
+      <c r="K123" s="129"/>
+      <c r="L123" s="129"/>
+      <c r="M123" s="129"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E124" s="4"/>
@@ -17755,7 +17881,7 @@
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="120" t="s">
+      <c r="A126" s="119" t="s">
         <v>122</v>
       </c>
       <c r="E126" s="4"/>
@@ -17766,7 +17892,7 @@
       <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" s="120" t="s">
+      <c r="A127" s="119" t="s">
         <v>147</v>
       </c>
       <c r="E127" s="4"/>
@@ -17837,11 +17963,11 @@
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
       <c r="V1" s="64"/>
       <c r="W1" s="64"/>
     </row>
@@ -17856,16 +17982,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
       <c r="V3" s="64"/>
       <c r="W3" s="64"/>
     </row>
@@ -17878,15 +18004,15 @@
       <c r="D4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
       <c r="V4" s="64"/>
       <c r="W4" s="64"/>
     </row>
@@ -17896,25 +18022,25 @@
         <v>113</v>
       </c>
       <c r="C5" s="22"/>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="135" t="s">
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="134">
+      <c r="H5" s="133">
         <v>4</v>
       </c>
-      <c r="I5" s="99" t="str">
+      <c r="I5" s="98" t="str">
         <f xml:space="preserve"> IF(MOD(H5,2)=0,"(Even)","(Odd)")</f>
         <v>(Even)</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
       <c r="V5" s="64"/>
       <c r="W5" s="64"/>
     </row>
@@ -17927,15 +18053,15 @@
       <c r="D6" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="V6" s="64"/>
       <c r="W6" s="64"/>
     </row>
@@ -17946,70 +18072,70 @@
       <c r="D7" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="V7" s="64"/>
       <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="114" t="s">
         <v>139</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
       <c r="V8" s="64"/>
       <c r="W8" s="64"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="64"/>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
       <c r="V9" s="64"/>
       <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="64"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
       <c r="V10" s="64"/>
       <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="64"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="5" t="s">
         <v>116</v>
       </c>
@@ -18019,7 +18145,7 @@
       <c r="H11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="86" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="18" t="s">
@@ -18031,22 +18157,22 @@
       <c r="L11" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
       <c r="V11" s="64"/>
       <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="108">
         <v>1</v>
       </c>
       <c r="I12" s="6">
@@ -18055,22 +18181,22 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
       <c r="V12" s="64"/>
       <c r="W12" s="64"/>
     </row>
     <row r="13" spans="1:23" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A13" s="64"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="19">
         <v>1</v>
       </c>
-      <c r="H13" s="110">
+      <c r="H13" s="109">
         <v>2</v>
       </c>
       <c r="I13" s="9">
@@ -18082,21 +18208,21 @@
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
       <c r="V13" s="64"/>
       <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="19"/>
       <c r="F14" s="4"/>
       <c r="G14" s="19">
         <v>1</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="110">
         <v>3</v>
       </c>
       <c r="I14" s="9">
@@ -18114,20 +18240,20 @@
         <f>I14/K14</f>
         <v>0.55081967213114758</v>
       </c>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
       <c r="V14" s="64"/>
       <c r="W14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="64"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="20"/>
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="109">
         <v>4</v>
       </c>
       <c r="I15" s="9">
@@ -18145,15 +18271,15 @@
         <f t="shared" ref="L15:L21" si="2">I15/K15</f>
         <v>1.4783526927138331</v>
       </c>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
       <c r="V15" s="64"/>
       <c r="W15" s="64"/>
     </row>
     <row r="16" spans="1:23" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="G16" s="19">
         <v>2</v>
       </c>
@@ -18175,8 +18301,8 @@
         <f t="shared" si="2"/>
         <v>1.1557377049180328</v>
       </c>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
       <c r="V16" s="64"/>
       <c r="W16" s="64"/>
     </row>
@@ -18203,7 +18329,7 @@
         <f t="shared" si="2"/>
         <v>0.82814070351758795</v>
       </c>
-      <c r="N17" s="99"/>
+      <c r="N17" s="98"/>
       <c r="V17" s="64"/>
       <c r="W17" s="64"/>
     </row>
@@ -18230,7 +18356,7 @@
         <f t="shared" si="2"/>
         <v>0.59171597633136097</v>
       </c>
-      <c r="N18" s="99"/>
+      <c r="N18" s="98"/>
       <c r="V18" s="64"/>
       <c r="W18" s="64"/>
     </row>
@@ -18239,7 +18365,7 @@
       <c r="G19" s="19">
         <v>2</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="80">
         <v>4</v>
       </c>
       <c r="I19" s="9">
@@ -18334,7 +18460,7 @@
       <c r="G23" s="20">
         <v>3</v>
       </c>
-      <c r="H23" s="85">
+      <c r="H23" s="84">
         <v>4</v>
       </c>
       <c r="I23" s="11">
@@ -18424,19 +18550,19 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="64"/>
-      <c r="F32" s="86" t="s">
+      <c r="F32" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="86">
+      <c r="G32" s="85">
         <v>1</v>
       </c>
-      <c r="H32" s="86">
+      <c r="H32" s="85">
         <v>2</v>
       </c>
-      <c r="I32" s="86">
+      <c r="I32" s="85">
         <v>3</v>
       </c>
-      <c r="J32" s="86">
+      <c r="J32" s="85">
         <v>4</v>
       </c>
       <c r="V32" s="64"/>
@@ -18444,16 +18570,16 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="64"/>
-      <c r="F33" s="86">
+      <c r="F33" s="85">
         <v>1</v>
       </c>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92">
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91">
         <f>L14</f>
         <v>0.55081967213114758</v>
       </c>
-      <c r="J33" s="92">
+      <c r="J33" s="91">
         <f>L15</f>
         <v>1.4783526927138331</v>
       </c>
@@ -18462,22 +18588,22 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="64"/>
-      <c r="F34" s="86">
+      <c r="F34" s="85">
         <v>2</v>
       </c>
-      <c r="G34" s="93">
+      <c r="G34" s="92">
         <f>$L16</f>
         <v>1.1557377049180328</v>
       </c>
-      <c r="H34" s="93">
+      <c r="H34" s="92">
         <f>L17</f>
         <v>0.82814070351758795</v>
       </c>
-      <c r="I34" s="93">
+      <c r="I34" s="92">
         <f>L18</f>
         <v>0.59171597633136097</v>
       </c>
-      <c r="J34" s="93">
+      <c r="J34" s="92">
         <f>L19</f>
         <v>1.4149659863945578</v>
       </c>
@@ -18486,19 +18612,19 @@
     </row>
     <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
-      <c r="F35" s="86">
+      <c r="F35" s="85">
         <v>3</v>
       </c>
-      <c r="G35" s="94">
+      <c r="G35" s="93">
         <f>L20</f>
         <v>1.1791907514450868</v>
       </c>
-      <c r="H35" s="94">
+      <c r="H35" s="93">
         <f>L21</f>
         <v>0.80151228733459357</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
       <c r="V35" s="64"/>
       <c r="W35" s="64"/>
     </row>
@@ -18549,7 +18675,7 @@
         <f xml:space="preserve"> AVERAGE(G33:G35)</f>
         <v>1.1674642281815597</v>
       </c>
-      <c r="H40" s="97">
+      <c r="H40" s="96">
         <f t="shared" ref="H40:J40" si="3" xml:space="preserve"> AVERAGE(H33:H35)</f>
         <v>0.81482649542609076</v>
       </c>
@@ -18562,7 +18688,7 @@
         <v>1.4466593395541953</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="95">
+      <c r="L40" s="94">
         <f>SUM(G40:J40)</f>
         <v>4.0002178873931005</v>
       </c>
@@ -18574,24 +18700,24 @@
       <c r="F41" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="98">
+      <c r="G41" s="97">
         <f>G40*(4/$L$40)</f>
         <v>1.1674006377111461</v>
       </c>
-      <c r="H41" s="98">
+      <c r="H41" s="97">
         <f>H40*(4/$L$40)</f>
         <v>0.81478211273846834</v>
       </c>
-      <c r="I41" s="98">
+      <c r="I41" s="97">
         <f>I40*(4/$L$40)</f>
         <v>0.57123670791197179</v>
       </c>
-      <c r="J41" s="98">
+      <c r="J41" s="97">
         <f>J40*(4/$L$40)</f>
         <v>1.4465805416384134</v>
       </c>
       <c r="K41" s="11"/>
-      <c r="L41" s="96">
+      <c r="L41" s="95">
         <f>SUM(G41:J41)</f>
         <v>3.9999999999999991</v>
       </c>
@@ -18664,23 +18790,23 @@
         <v>36</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="E46" s="119" t="s">
+      <c r="E46" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="119"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="119"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
       <c r="V46" s="64"/>
       <c r="W46" s="64"/>
     </row>
@@ -18689,7 +18815,7 @@
       <c r="B47" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="122"/>
+      <c r="C47" s="121"/>
       <c r="V47" s="64"/>
       <c r="W47" s="64"/>
     </row>
@@ -18698,11 +18824,11 @@
       <c r="B48" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="123"/>
+      <c r="C48" s="122"/>
       <c r="D48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -18719,7 +18845,7 @@
       <c r="B49" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="124"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="19">
         <v>1</v>
       </c>
@@ -18731,7 +18857,7 @@
         <f>$G$41</f>
         <v>1.1674006377111461</v>
       </c>
-      <c r="G49" s="117">
+      <c r="G49" s="116">
         <f>E49/F49</f>
         <v>107.9320979702742</v>
       </c>
@@ -18753,7 +18879,7 @@
         <f>$H$41</f>
         <v>0.81478211273846834</v>
       </c>
-      <c r="G50" s="117">
+      <c r="G50" s="116">
         <f t="shared" ref="G50:G60" si="5">E50/F50</f>
         <v>105.54969071541778</v>
       </c>
@@ -18773,7 +18899,7 @@
         <f>$I$41</f>
         <v>0.57123670791197179</v>
       </c>
-      <c r="G51" s="117">
+      <c r="G51" s="116">
         <f t="shared" si="5"/>
         <v>110.28703010050322</v>
       </c>
@@ -18782,8 +18908,8 @@
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="19">
         <v>4</v>
       </c>
@@ -18795,25 +18921,25 @@
         <f>$J$41</f>
         <v>1.4465805416384134</v>
       </c>
-      <c r="G52" s="117">
+      <c r="G52" s="116">
         <f t="shared" si="5"/>
         <v>120.97494398880343</v>
       </c>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="99"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="99"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
       <c r="V52" s="64"/>
       <c r="W52" s="64"/>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="19">
         <v>5</v>
       </c>
@@ -18825,18 +18951,18 @@
         <f t="shared" ref="F53" si="6">$G$41</f>
         <v>1.1674006377111461</v>
       </c>
-      <c r="G53" s="117">
+      <c r="G53" s="116">
         <f t="shared" si="5"/>
         <v>120.7811572524497</v>
       </c>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
       <c r="V53" s="64"/>
       <c r="W53" s="64"/>
     </row>
@@ -18853,7 +18979,7 @@
         <f t="shared" ref="F54" si="7">$H$41</f>
         <v>0.81478211273846834</v>
       </c>
-      <c r="G54" s="117">
+      <c r="G54" s="116">
         <f t="shared" si="5"/>
         <v>126.41416446148874</v>
       </c>
@@ -18873,7 +18999,7 @@
         <f t="shared" ref="F55" si="8">$I$41</f>
         <v>0.57123670791197179</v>
       </c>
-      <c r="G55" s="117">
+      <c r="G55" s="116">
         <f t="shared" si="5"/>
         <v>131.29408345298003</v>
       </c>
@@ -18893,7 +19019,7 @@
         <f t="shared" ref="F56" si="9">$J$41</f>
         <v>1.4465805416384134</v>
       </c>
-      <c r="G56" s="117">
+      <c r="G56" s="116">
         <f t="shared" si="5"/>
         <v>125.81394174835557</v>
       </c>
@@ -18913,7 +19039,7 @@
         <f t="shared" ref="F57" si="10">$G$41</f>
         <v>1.1674006377111461</v>
       </c>
-      <c r="G57" s="117">
+      <c r="G57" s="116">
         <f t="shared" si="5"/>
         <v>131.06040467819011</v>
       </c>
@@ -18933,7 +19059,7 @@
         <f t="shared" ref="F58" si="11">$H$41</f>
         <v>0.81478211273846834</v>
       </c>
-      <c r="G58" s="117">
+      <c r="G58" s="116">
         <f t="shared" si="5"/>
         <v>130.09613041667774</v>
       </c>
@@ -18953,7 +19079,7 @@
         <f t="shared" ref="F59" si="12">$I$41</f>
         <v>0.57123670791197179</v>
       </c>
-      <c r="G59" s="117">
+      <c r="G59" s="116">
         <f t="shared" si="5"/>
         <v>141.79761012921844</v>
       </c>
@@ -18973,7 +19099,7 @@
         <f t="shared" ref="F60" si="13">$J$41</f>
         <v>1.4465805416384134</v>
       </c>
-      <c r="G60" s="118">
+      <c r="G60" s="117">
         <f t="shared" si="5"/>
         <v>135.49193726745986</v>
       </c>
@@ -19050,13 +19176,13 @@
     </row>
     <row r="66" spans="1:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="64"/>
-      <c r="B66" s="121" t="s">
+      <c r="B66" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="125" t="s">
+      <c r="D66" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="69" t="s">
         <v>124</v>
       </c>
       <c r="V66" s="64"/>
@@ -19174,48 +19300,48 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="64"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="99"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="99"/>
-      <c r="H81" s="99"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="99"/>
-      <c r="K81" s="99"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="98"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="98"/>
+      <c r="K81" s="98"/>
       <c r="V81" s="64"/>
       <c r="W81" s="64"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="64"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="119" t="s">
+      <c r="B82" s="98"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="119"/>
-      <c r="F82" s="119"/>
-      <c r="G82" s="119"/>
-      <c r="H82" s="99"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="99"/>
-      <c r="K82" s="99"/>
+      <c r="E82" s="118"/>
+      <c r="F82" s="118"/>
+      <c r="G82" s="118"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="98"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="98"/>
       <c r="V82" s="64"/>
       <c r="W82" s="64"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="64"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99"/>
-      <c r="G83" s="99"/>
-      <c r="H83" s="99"/>
-      <c r="I83" s="99"/>
-      <c r="J83" s="99"/>
-      <c r="K83" s="99"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="98"/>
+      <c r="J83" s="98"/>
+      <c r="K83" s="98"/>
       <c r="V83" s="64"/>
       <c r="W83" s="64"/>
     </row>
@@ -19242,7 +19368,7 @@
     </row>
     <row r="86" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A86" s="64"/>
-      <c r="B86" s="126" t="s">
+      <c r="B86" s="125" t="s">
         <v>126</v>
       </c>
       <c r="V86" s="64"/>
@@ -19283,7 +19409,7 @@
       <c r="D90" s="19">
         <v>13</v>
       </c>
-      <c r="E90" s="127">
+      <c r="E90" s="126">
         <f>(2.9317*D90)+104.9</f>
         <v>143.0121</v>
       </c>
@@ -19295,7 +19421,7 @@
       <c r="D91" s="19">
         <v>14</v>
       </c>
-      <c r="E91" s="127">
+      <c r="E91" s="126">
         <f t="shared" ref="E91:E93" si="14">(2.9317*D91)+104.9</f>
         <v>145.94380000000001</v>
       </c>
@@ -19307,7 +19433,7 @@
       <c r="D92" s="19">
         <v>15</v>
       </c>
-      <c r="E92" s="127">
+      <c r="E92" s="126">
         <f t="shared" si="14"/>
         <v>148.87550000000002</v>
       </c>
@@ -19319,7 +19445,7 @@
       <c r="D93" s="20">
         <v>16</v>
       </c>
-      <c r="E93" s="128">
+      <c r="E93" s="127">
         <f t="shared" si="14"/>
         <v>151.80720000000002</v>
       </c>
@@ -19416,8 +19542,8 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="64"/>
-      <c r="V102" s="132"/>
-      <c r="W102" s="132"/>
+      <c r="V102" s="131"/>
+      <c r="W102" s="131"/>
     </row>
     <row r="103" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="64"/>
@@ -19434,13 +19560,13 @@
     </row>
     <row r="105" spans="1:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="64"/>
-      <c r="B105" s="126" t="s">
+      <c r="B105" s="125" t="s">
         <v>132</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="87" t="s">
+      <c r="E105" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F105" s="5" t="s">
@@ -19473,7 +19599,7 @@
         <f>$G$41</f>
         <v>1.1674006377111461</v>
       </c>
-      <c r="G106" s="81">
+      <c r="G106" s="80">
         <f>E106/F106</f>
         <v>107.9320979702742</v>
       </c>
@@ -19497,7 +19623,7 @@
         <f>$H$41</f>
         <v>0.81478211273846834</v>
       </c>
-      <c r="G107" s="81">
+      <c r="G107" s="80">
         <f t="shared" ref="G107:G117" si="15">E107/F107</f>
         <v>105.54969071541778</v>
       </c>
@@ -19518,7 +19644,7 @@
         <f>$I$41</f>
         <v>0.57123670791197179</v>
       </c>
-      <c r="G108" s="81">
+      <c r="G108" s="80">
         <f t="shared" si="15"/>
         <v>110.28703010050322</v>
       </c>
@@ -19539,7 +19665,7 @@
         <f>$J$41</f>
         <v>1.4465805416384134</v>
       </c>
-      <c r="G109" s="81">
+      <c r="G109" s="80">
         <f t="shared" si="15"/>
         <v>120.97494398880343</v>
       </c>
@@ -19560,7 +19686,7 @@
         <f t="shared" ref="F110" si="16">$G$41</f>
         <v>1.1674006377111461</v>
       </c>
-      <c r="G110" s="81">
+      <c r="G110" s="80">
         <f t="shared" si="15"/>
         <v>120.7811572524497</v>
       </c>
@@ -19581,7 +19707,7 @@
         <f t="shared" ref="F111" si="17">$H$41</f>
         <v>0.81478211273846834</v>
       </c>
-      <c r="G111" s="81">
+      <c r="G111" s="80">
         <f t="shared" si="15"/>
         <v>126.41416446148874</v>
       </c>
@@ -19602,7 +19728,7 @@
         <f t="shared" ref="F112" si="18">$I$41</f>
         <v>0.57123670791197179</v>
       </c>
-      <c r="G112" s="81">
+      <c r="G112" s="80">
         <f t="shared" si="15"/>
         <v>131.29408345298003</v>
       </c>
@@ -19623,7 +19749,7 @@
         <f t="shared" ref="F113" si="19">$J$41</f>
         <v>1.4465805416384134</v>
       </c>
-      <c r="G113" s="81">
+      <c r="G113" s="80">
         <f t="shared" si="15"/>
         <v>125.81394174835557</v>
       </c>
@@ -19644,7 +19770,7 @@
         <f t="shared" ref="F114" si="20">$G$41</f>
         <v>1.1674006377111461</v>
       </c>
-      <c r="G114" s="81">
+      <c r="G114" s="80">
         <f t="shared" si="15"/>
         <v>131.06040467819011</v>
       </c>
@@ -19665,7 +19791,7 @@
         <f t="shared" ref="F115" si="21">$H$41</f>
         <v>0.81478211273846834</v>
       </c>
-      <c r="G115" s="81">
+      <c r="G115" s="80">
         <f t="shared" si="15"/>
         <v>130.09613041667774</v>
       </c>
@@ -19686,7 +19812,7 @@
         <f t="shared" ref="F116" si="22">$I$41</f>
         <v>0.57123670791197179</v>
       </c>
-      <c r="G116" s="81">
+      <c r="G116" s="80">
         <f t="shared" si="15"/>
         <v>141.79761012921844</v>
       </c>
@@ -19707,7 +19833,7 @@
         <f t="shared" ref="F117" si="23">$J$41</f>
         <v>1.4465805416384134</v>
       </c>
-      <c r="G117" s="85">
+      <c r="G117" s="84">
         <f t="shared" si="15"/>
         <v>135.49193726745986</v>
       </c>
@@ -19718,7 +19844,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="64"/>
-      <c r="D118" s="81">
+      <c r="D118" s="80">
         <v>13</v>
       </c>
       <c r="F118" s="19">
@@ -19729,7 +19855,7 @@
         <f>E90</f>
         <v>143.0121</v>
       </c>
-      <c r="I118" s="127">
+      <c r="I118" s="126">
         <f>H118*F118</f>
         <v>166.9524167404102</v>
       </c>
@@ -19738,7 +19864,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="64"/>
-      <c r="D119" s="81">
+      <c r="D119" s="80">
         <v>14</v>
       </c>
       <c r="F119" s="19">
@@ -19749,7 +19875,7 @@
         <f>E91</f>
         <v>145.94380000000001</v>
       </c>
-      <c r="I119" s="117">
+      <c r="I119" s="116">
         <f t="shared" ref="I119:I121" si="26">H119*F119</f>
         <v>118.91239770508048</v>
       </c>
@@ -19758,7 +19884,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="64"/>
-      <c r="D120" s="81">
+      <c r="D120" s="80">
         <v>15</v>
       </c>
       <c r="F120" s="19">
@@ -19769,7 +19895,7 @@
         <f>E92</f>
         <v>148.87550000000002</v>
       </c>
-      <c r="I120" s="117">
+      <c r="I120" s="116">
         <f t="shared" si="26"/>
         <v>85.043150508748766</v>
       </c>
@@ -19778,7 +19904,7 @@
     </row>
     <row r="121" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="64"/>
-      <c r="D121" s="85">
+      <c r="D121" s="84">
         <v>16</v>
       </c>
       <c r="E121" s="12"/>
@@ -19791,7 +19917,7 @@
         <f>E93</f>
         <v>151.80720000000002</v>
       </c>
-      <c r="I121" s="118">
+      <c r="I121" s="117">
         <f t="shared" si="26"/>
         <v>219.60134160061099</v>
       </c>
@@ -19810,27 +19936,27 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="64"/>
-      <c r="C124" s="130"/>
-      <c r="D124" s="130"/>
-      <c r="E124" s="130"/>
-      <c r="F124" s="130"/>
-      <c r="G124" s="130"/>
-      <c r="H124" s="130"/>
-      <c r="I124" s="130"/>
+      <c r="C124" s="129"/>
+      <c r="D124" s="129"/>
+      <c r="E124" s="129"/>
+      <c r="F124" s="129"/>
+      <c r="G124" s="129"/>
+      <c r="H124" s="129"/>
+      <c r="I124" s="129"/>
       <c r="V124" s="64"/>
       <c r="W124" s="64"/>
     </row>
     <row r="125" spans="1:23" ht="27" x14ac:dyDescent="0.35">
       <c r="A125" s="64"/>
-      <c r="C125" s="131" t="s">
+      <c r="C125" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="D125" s="130"/>
-      <c r="E125" s="130"/>
-      <c r="F125" s="130"/>
-      <c r="G125" s="130"/>
-      <c r="H125" s="130"/>
-      <c r="I125" s="130"/>
+      <c r="D125" s="129"/>
+      <c r="E125" s="129"/>
+      <c r="F125" s="129"/>
+      <c r="G125" s="129"/>
+      <c r="H125" s="129"/>
+      <c r="I125" s="129"/>
       <c r="V125" s="64"/>
       <c r="W125" s="64"/>
     </row>
@@ -19910,8 +20036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0F3E63-A169-4744-9577-EDF1535DE937}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19926,45 +20052,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="S1" s="67"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="S1" s="66"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S2" s="67"/>
+      <c r="S2" s="66"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S3" s="67"/>
+      <c r="S3" s="66"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S4" s="67"/>
+      <c r="S4" s="66"/>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S5" s="67"/>
+      <c r="S5" s="66"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="141" t="s">
+      <c r="G6" s="140" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="67"/>
+      <c r="S6" s="66"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="64"/>
@@ -19976,13 +20102,13 @@
       <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="149">
+      <c r="H7" s="148">
         <v>1</v>
       </c>
       <c r="I7" s="18">
         <v>270</v>
       </c>
-      <c r="S7" s="67"/>
+      <c r="S7" s="66"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F8" s="19">
@@ -19991,13 +20117,13 @@
       <c r="G8" s="19">
         <v>1</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="80">
         <v>2</v>
       </c>
       <c r="I8" s="19">
         <v>310</v>
       </c>
-      <c r="S8" s="67"/>
+      <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F9" s="19">
@@ -20006,13 +20132,13 @@
       <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <v>3</v>
       </c>
       <c r="I9" s="19">
         <v>250</v>
       </c>
-      <c r="S9" s="67"/>
+      <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F10" s="19">
@@ -20021,13 +20147,13 @@
       <c r="G10" s="19">
         <v>1</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="80">
         <v>4</v>
       </c>
       <c r="I10" s="19">
         <v>290</v>
       </c>
-      <c r="S10" s="67"/>
+      <c r="S10" s="66"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F11" s="19">
@@ -20036,13 +20162,13 @@
       <c r="G11" s="19">
         <v>2</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="80">
         <v>1</v>
       </c>
       <c r="I11" s="19">
         <v>370</v>
       </c>
-      <c r="S11" s="67"/>
+      <c r="S11" s="66"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F12" s="19">
@@ -20057,7 +20183,7 @@
       <c r="I12" s="19">
         <v>410</v>
       </c>
-      <c r="S12" s="67"/>
+      <c r="S12" s="66"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F13" s="19">
@@ -20072,7 +20198,7 @@
       <c r="I13" s="19">
         <v>400</v>
       </c>
-      <c r="S13" s="67"/>
+      <c r="S13" s="66"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F14" s="19">
@@ -20087,7 +20213,7 @@
       <c r="I14" s="19">
         <v>450</v>
       </c>
-      <c r="S14" s="67"/>
+      <c r="S14" s="66"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F15" s="19">
@@ -20102,7 +20228,7 @@
       <c r="I15" s="19">
         <v>443</v>
       </c>
-      <c r="S15" s="67"/>
+      <c r="S15" s="66"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F16" s="19">
@@ -20117,7 +20243,7 @@
       <c r="I16" s="19">
         <v>519</v>
       </c>
-      <c r="S16" s="67"/>
+      <c r="S16" s="66"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F17" s="19">
@@ -20132,7 +20258,7 @@
       <c r="I17" s="19">
         <v>487</v>
       </c>
-      <c r="S17" s="67"/>
+      <c r="S17" s="66"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="20">
@@ -20147,48 +20273,48 @@
       <c r="I18" s="20">
         <v>576</v>
       </c>
-      <c r="S18" s="67"/>
+      <c r="S18" s="66"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S19" s="67"/>
+      <c r="S19" s="66"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S21" s="67"/>
+      <c r="S21" s="66"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
       <c r="F22" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S22" s="67"/>
+      <c r="S22" s="66"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B23" s="64" t="s">
@@ -20204,7 +20330,7 @@
         <f t="shared" ref="G23:G34" si="1">I7</f>
         <v>270</v>
       </c>
-      <c r="S23" s="67"/>
+      <c r="S23" s="66"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F24" s="9">
@@ -20215,7 +20341,7 @@
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="S24" s="67"/>
+      <c r="S24" s="66"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F25" s="9">
@@ -20226,7 +20352,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="S25" s="67"/>
+      <c r="S25" s="66"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F26" s="9">
@@ -20237,7 +20363,7 @@
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="S26" s="67"/>
+      <c r="S26" s="66"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F27" s="9">
@@ -20248,7 +20374,7 @@
         <f t="shared" si="1"/>
         <v>370</v>
       </c>
-      <c r="S27" s="67"/>
+      <c r="S27" s="66"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F28" s="9">
@@ -20259,7 +20385,7 @@
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
-      <c r="S28" s="67"/>
+      <c r="S28" s="66"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F29" s="9">
@@ -20270,7 +20396,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="S29" s="67"/>
+      <c r="S29" s="66"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F30" s="9">
@@ -20281,7 +20407,7 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="S30" s="67"/>
+      <c r="S30" s="66"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F31" s="9">
@@ -20292,7 +20418,7 @@
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
-      <c r="S31" s="67"/>
+      <c r="S31" s="66"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F32" s="9">
@@ -20303,7 +20429,7 @@
         <f t="shared" si="1"/>
         <v>519</v>
       </c>
-      <c r="S32" s="67"/>
+      <c r="S32" s="66"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F33" s="9">
@@ -20314,7 +20440,7 @@
         <f t="shared" si="1"/>
         <v>487</v>
       </c>
-      <c r="S33" s="67"/>
+      <c r="S33" s="66"/>
     </row>
     <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F34" s="11">
@@ -20325,60 +20451,60 @@
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="S34" s="67"/>
+      <c r="S34" s="66"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S35" s="67"/>
+      <c r="S35" s="66"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
     </row>
     <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="67"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="66"/>
     </row>
     <row r="38" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="152"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="151"/>
       <c r="F38" s="15" t="s">
         <v>154</v>
       </c>
@@ -20389,16 +20515,16 @@
         <v>166</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="157" t="s">
+      <c r="J38" s="156" t="s">
         <v>162</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="L38" s="158" t="s">
+      <c r="L38" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="S38" s="67"/>
+      <c r="S38" s="66"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B39" s="64" t="s">
@@ -20406,8 +20532,8 @@
       </c>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
-      <c r="F39" s="154">
-        <f>F23*G23</f>
+      <c r="F39" s="153">
+        <f t="shared" ref="F39:F50" si="2">F23*G23</f>
         <v>270</v>
       </c>
       <c r="G39" s="14">
@@ -20431,332 +20557,332 @@
         <f>J39-$K$39</f>
         <v>-506</v>
       </c>
-      <c r="S39" s="67"/>
+      <c r="S39" s="66"/>
     </row>
     <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="F40" s="154">
-        <f>F24*G24</f>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="F40" s="153">
+        <f t="shared" si="2"/>
         <v>620</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="19">
-        <f t="shared" ref="H40:H50" si="2">F40-$G$39</f>
+        <f t="shared" ref="H40:H50" si="3">F40-$G$39</f>
         <v>-30417.5</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="9">
-        <f t="shared" ref="J40:J50" si="3">F24^2</f>
+        <f t="shared" ref="J40:J50" si="4">F24^2</f>
         <v>4</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="19">
-        <f t="shared" ref="L40:L50" si="4">J40-$K$39</f>
+        <f t="shared" ref="L40:L50" si="5">J40-$K$39</f>
         <v>-503</v>
       </c>
-      <c r="S40" s="67"/>
+      <c r="S40" s="66"/>
     </row>
     <row r="41" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="156">
+      <c r="C41" s="155">
         <f>COUNT(F23:F34)</f>
         <v>12</v>
       </c>
-      <c r="D41" s="99"/>
-      <c r="F41" s="154">
-        <f>F25*G25</f>
+      <c r="D41" s="98"/>
+      <c r="F41" s="153">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-30287.5</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-498</v>
       </c>
-      <c r="S41" s="67"/>
+      <c r="S41" s="66"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D42" s="99"/>
-      <c r="F42" s="154">
-        <f>F26*G26</f>
+      <c r="D42" s="98"/>
+      <c r="F42" s="153">
+        <f t="shared" si="2"/>
         <v>1160</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-29877.5</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-491</v>
       </c>
-      <c r="S42" s="67"/>
+      <c r="S42" s="66"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D43" s="99"/>
-      <c r="F43" s="154">
-        <f>F27*G27</f>
+      <c r="D43" s="98"/>
+      <c r="F43" s="153">
+        <f t="shared" si="2"/>
         <v>1850</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-29187.5</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-482</v>
       </c>
-      <c r="S43" s="67"/>
+      <c r="S43" s="66"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D44" s="99"/>
-      <c r="F44" s="154">
-        <f>F28*G28</f>
+      <c r="D44" s="98"/>
+      <c r="F44" s="153">
+        <f t="shared" si="2"/>
         <v>2460</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-28577.5</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-471</v>
       </c>
-      <c r="S44" s="67"/>
+      <c r="S44" s="66"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D45" s="99"/>
-      <c r="F45" s="154">
-        <f>F29*G29</f>
+      <c r="D45" s="98"/>
+      <c r="F45" s="153">
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-28237.5</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-458</v>
       </c>
-      <c r="S45" s="67"/>
+      <c r="S45" s="66"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D46" s="99"/>
-      <c r="F46" s="154">
-        <f>F30*G30</f>
+      <c r="D46" s="98"/>
+      <c r="F46" s="153">
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-27437.5</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-443</v>
       </c>
-      <c r="S46" s="67"/>
+      <c r="S46" s="66"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D47" s="99"/>
-      <c r="F47" s="154">
-        <f>F31*G31</f>
+      <c r="D47" s="98"/>
+      <c r="F47" s="153">
+        <f t="shared" si="2"/>
         <v>3987</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-27050.5</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-426</v>
       </c>
-      <c r="S47" s="67"/>
+      <c r="S47" s="66"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D48" s="99"/>
-      <c r="F48" s="154">
-        <f>F32*G32</f>
+      <c r="D48" s="98"/>
+      <c r="F48" s="153">
+        <f t="shared" si="2"/>
         <v>5190</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-25847.5</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-407</v>
       </c>
-      <c r="S48" s="67"/>
+      <c r="S48" s="66"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D49" s="99"/>
-      <c r="F49" s="154">
-        <f>F33*G33</f>
+      <c r="D49" s="98"/>
+      <c r="F49" s="153">
+        <f t="shared" si="2"/>
         <v>5357</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-25680.5</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-386</v>
       </c>
-      <c r="S49" s="67"/>
+      <c r="S49" s="66"/>
     </row>
     <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="99"/>
-      <c r="F50" s="155">
-        <f>F34*G34</f>
+      <c r="D50" s="98"/>
+      <c r="F50" s="154">
+        <f t="shared" si="2"/>
         <v>6912</v>
       </c>
       <c r="G50" s="51"/>
       <c r="H50" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-24125.5</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-363</v>
       </c>
-      <c r="S50" s="67"/>
+      <c r="S50" s="66"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D51" s="99"/>
-      <c r="S51" s="67"/>
+      <c r="D51" s="98"/>
+      <c r="S51" s="66"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D52" s="99"/>
-      <c r="S52" s="67"/>
+      <c r="D52" s="98"/>
+      <c r="S52" s="66"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D53" s="99"/>
-      <c r="S53" s="67"/>
+      <c r="D53" s="98"/>
+      <c r="S53" s="66"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="S54" s="67"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="S54" s="66"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="S55" s="67"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="S55" s="66"/>
     </row>
     <row r="56" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="S56" s="67"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="S56" s="66"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
-      <c r="S57" s="67"/>
+      <c r="S57" s="66"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66"/>
     </row>
     <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="146" t="s">
+      <c r="B60" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="147"/>
-      <c r="D60" s="148"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="147"/>
       <c r="F60" t="s">
         <v>157</v>
       </c>
@@ -20771,15 +20897,15 @@
         <f>SUM(L39:L50)</f>
         <v>-5434</v>
       </c>
-      <c r="J60" s="159">
+      <c r="J60" s="158">
         <f>H60/I60</f>
         <v>62.107839528892157</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B61" s="132"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H63">
